--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://earthac-my.sharepoint.com/personal/onavarrete_earth_ac_cr/Documents/Pgs_2025/Danny_Marcelo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{399377AC-6E9C-494B-9226-06C282FC9BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F222D9E-EA48-4A4F-9E92-64C42AADCC5B}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{399377AC-6E9C-494B-9226-06C282FC9BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E359865A-7952-41A0-9AC0-A0BEB809287F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{877F784E-1ADB-4488-B82E-FCB50E03E424}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{877F784E-1ADB-4488-B82E-FCB50E03E424}"/>
   </bookViews>
   <sheets>
     <sheet name="datos" sheetId="1" r:id="rId1"/>
+    <sheet name="vars" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">datos!$A$1:$M$407</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="32">
   <si>
     <t>Fecha</t>
   </si>
@@ -123,6 +124,18 @@
   </si>
   <si>
     <t>Dosis</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Etiqueta</t>
+  </si>
+  <si>
+    <t>Clorofila (SPAD)</t>
+  </si>
+  <si>
+    <t>Altura (cm)</t>
   </si>
 </sst>
 </file>
@@ -632,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649D2E62-75C0-4294-A22A-BF2B291690FA}">
   <dimension ref="A1:M407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17245,4 +17258,51 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00CE1BE-D95E-4C22-BFC4-693F73CEDA9A}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://earthac-my.sharepoint.com/personal/onavarrete_earth_ac_cr/Documents/Pgs_2025/Danny_Marcelo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{399377AC-6E9C-494B-9226-06C282FC9BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E359865A-7952-41A0-9AC0-A0BEB809287F}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{399377AC-6E9C-494B-9226-06C282FC9BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B89E5667-45F3-4BA7-960F-AA7F905B36DE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{877F784E-1ADB-4488-B82E-FCB50E03E424}"/>
   </bookViews>
@@ -645,7 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649D2E62-75C0-4294-A22A-BF2B291690FA}">
   <dimension ref="A1:M407"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:I1"/>
     </sheetView>
   </sheetViews>
